--- a/VitalSigns/CurrentBuild/CodeSystem-vkp-subject-identifier-systems.codesystem.xlsx
+++ b/VitalSigns/CurrentBuild/CodeSystem-vkp-subject-identifier-systems.codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -129,19 +129,25 @@
     <t>1</t>
   </si>
   <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.1</t>
+  </si>
+  <si>
     <t>FNR</t>
   </si>
   <si>
     <t>Fødselsnummer</t>
   </si>
   <si>
-    <t>2</t>
+    <t>urn:oid:2.16.578.1.12.4.1.4.2</t>
   </si>
   <si>
     <t>DNR</t>
   </si>
   <si>
     <t>D-nummer</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.3</t>
   </si>
   <si>
     <t>FHN</t>
@@ -473,13 +479,13 @@
         <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +493,13 @@
         <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -501,13 +507,13 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
